--- a/data/trans_camb/P15A-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P15A-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-0.5879189715674595</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.4050748228439378</v>
+        <v>0.4050748228439375</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.3808079623172572</v>
@@ -664,7 +664,7 @@
         <v>-0.5481325266457713</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.6449993877962061</v>
+        <v>-0.6449993877962066</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.803573433820134</v>
+        <v>-1.607212524192194</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.584679308210881</v>
+        <v>-2.636929904827055</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.374776304443464</v>
+        <v>-3.43526532370149</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.617734448836374</v>
+        <v>-2.751478075403586</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.856383712496364</v>
+        <v>-3.360157840337191</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.082482893834807</v>
+        <v>-2.392764946665652</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.445600601427842</v>
+        <v>-1.259881773009302</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.0801219569247</v>
+        <v>-2.08792546751085</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.255171797009512</v>
+        <v>-2.19850254084383</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.040368110395377</v>
+        <v>3.002925685542947</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.08814564714503</v>
+        <v>1.799404964645535</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.01390293909069705</v>
+        <v>0.1318785201942215</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.267671527693853</v>
+        <v>3.232299859091036</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.829924298075884</v>
+        <v>1.612787303900036</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.421661815788508</v>
+        <v>2.337568951166568</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.151199120709444</v>
+        <v>2.311345658948626</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9995590729593791</v>
+        <v>1.166106431472349</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6029655088113183</v>
+        <v>0.6650175479779749</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.2323321567939618</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1600763231085245</v>
+        <v>0.1600763231085243</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.145986965262956</v>
@@ -769,7 +769,7 @@
         <v>-0.2101326969110651</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.247267684866277</v>
+        <v>-0.2472676848662771</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4994059615738717</v>
+        <v>-0.4919560453992092</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7212724302056108</v>
+        <v>-0.7402840987216081</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8816158891014861</v>
+        <v>-0.8617544387941947</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.7326982309414067</v>
+        <v>-0.7466091431506576</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7458421239411259</v>
+        <v>-0.7731137922412155</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4804288243607523</v>
+        <v>-0.5237876617011273</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4093859479063143</v>
+        <v>-0.4148239974868772</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6003601754196194</v>
+        <v>-0.5990600655397785</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6011932568378812</v>
+        <v>-0.5952545922314944</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.015670315531968</v>
+        <v>1.719587906769429</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.502664601062502</v>
+        <v>1.218369085791351</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1298442730530115</v>
+        <v>0.2165976961245626</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.160118643041271</v>
+        <v>2.519596860060574</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.138000840236741</v>
+        <v>1.345803759940579</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.100397889320167</v>
+        <v>2.154514571412741</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.098988271447744</v>
+        <v>1.264517854747122</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5291820101273025</v>
+        <v>0.7285506358455908</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3897373276689322</v>
+        <v>0.4307258493561638</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-2.052633369196519</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.975930386403857</v>
+        <v>-0.9759303864038573</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.3781913941624125</v>
@@ -869,7 +869,7 @@
         <v>1.896140734739678</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.1376107032560889</v>
+        <v>-0.1376107032560888</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.4830934299545966</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.328920236144425</v>
+        <v>-3.323351665517139</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.561157232454673</v>
+        <v>-4.461789715542245</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.494550714156598</v>
+        <v>-3.719915284203924</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.130144094767457</v>
+        <v>-2.144316761455698</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.3674201064627082</v>
+        <v>-0.2938800636104666</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.974348584764917</v>
+        <v>-2.090312398668342</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.002969288800099</v>
+        <v>-2.135473419658405</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.600883581569182</v>
+        <v>-1.688684228389685</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.190814207963737</v>
+        <v>-2.146981458494399</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.760576148041253</v>
+        <v>1.977796399872908</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05616767863288802</v>
+        <v>-0.003606708997630598</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.588370687848108</v>
+        <v>1.669447331100201</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.694351271570412</v>
+        <v>1.616921579088088</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.688400127845761</v>
+        <v>4.605986594543833</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.254104258944887</v>
+        <v>1.192791957459475</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.031329092440382</v>
+        <v>1.119735063630984</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.643853600859581</v>
+        <v>1.766571773444371</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9882789791153176</v>
+        <v>0.993276187715886</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.5671275936586689</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.2696424309988914</v>
+        <v>-0.2696424309988915</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.2516857423797118</v>
@@ -974,7 +974,7 @@
         <v>1.261878498151186</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.0915796936234072</v>
+        <v>-0.09157969362340709</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.1891570037909684</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6529723405283641</v>
+        <v>-0.6514668983663825</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8686276053206708</v>
+        <v>-0.8644000207584017</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6997960585095682</v>
+        <v>-0.7323326185835666</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3619380218095701</v>
+        <v>-0.3135975292689233</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7567970624206597</v>
+        <v>-0.7455881298754941</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6280819589174971</v>
+        <v>-0.6078026084722166</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.527456855401322</v>
+        <v>-0.4947568887646944</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.6141275016245307</v>
+        <v>-0.605693046315952</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9427972988346727</v>
+        <v>1.090231738698835</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1549042256557034</v>
+        <v>0.1353987997454109</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7603461325311691</v>
+        <v>0.8636395759328559</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.573930785833764</v>
+        <v>4.62900784323878</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6.922818818613044</v>
+        <v>8.329629950868037</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.355267851071151</v>
+        <v>2.079997058112399</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6873540967303934</v>
+        <v>0.6758172233924329</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9863278936722177</v>
+        <v>1.007351400233996</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6157176358859152</v>
+        <v>0.590560282755072</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-3.314647384418178</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-2.081164260031244</v>
+        <v>-2.081164260031245</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.7499134469276324</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.717758069982538</v>
+        <v>-5.078019447577844</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.680260623830813</v>
+        <v>-5.577187327246862</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.85964251133287</v>
+        <v>-4.588236756871032</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.020490612019038</v>
+        <v>-3.884672773390542</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.4920187341491</v>
+        <v>-2.665462451963875</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.439174785192545</v>
+        <v>-3.643461773632166</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.150192169775424</v>
+        <v>-4.283116858385037</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.347054432370189</v>
+        <v>-4.553785175049693</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.633535173018623</v>
+        <v>-3.6938345361304</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.2851742124830235</v>
+        <v>-0.4229290553818058</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.9810713674844472</v>
+        <v>-1.074446231511078</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5534374163926856</v>
+        <v>0.5771416167805606</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.116523256104987</v>
+        <v>2.382578880926559</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.614384895590011</v>
+        <v>5.518098338648769</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.682668181311938</v>
+        <v>2.744029054353648</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.2727943651129013</v>
+        <v>-0.3534655552320399</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.299035073456017</v>
+        <v>-0.3831168118891961</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5905105457161512</v>
+        <v>0.3961718533307508</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.6356191990313566</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.3990855758088254</v>
+        <v>-0.3990855758088255</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.2538104279496217</v>
@@ -1197,7 +1197,7 @@
         <v>-0.4795025921355411</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.3415258696144136</v>
+        <v>-0.3415258696144134</v>
       </c>
     </row>
     <row r="20">
@@ -1208,29 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7280522427522547</v>
+        <v>-0.737188806465416</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.836559634741865</v>
+        <v>-0.8316290319787831</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7218727049494972</v>
-      </c>
-      <c r="F20" s="6" t="inlineStr"/>
+        <v>-0.7061935149588936</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.8209412777241623</v>
+      </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6602170621947603</v>
+        <v>-0.6926351138037469</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7242175293849289</v>
+        <v>-0.7207104647634682</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7001210022802887</v>
+        <v>-0.7048658598512334</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7147315706921599</v>
+        <v>-0.7488838734137728</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.6215489941744925</v>
+        <v>-0.6306071472673711</v>
       </c>
     </row>
     <row r="21">
@@ -1241,29 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.03532343644030474</v>
+        <v>-0.06340910242719952</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.2002594674389209</v>
+        <v>-0.2452604069019213</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.18478485874157</v>
-      </c>
-      <c r="F21" s="6" t="inlineStr"/>
+        <v>0.1651387231291981</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>2.727473502639818</v>
+      </c>
       <c r="G21" s="6" t="n">
-        <v>4.653604444539051</v>
+        <v>4.821372189826158</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.701161480698222</v>
+        <v>2.410751792881871</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.04465811374367316</v>
+        <v>-0.08575174529152306</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.05840872293962922</v>
+        <v>-0.04801096735661077</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1691871811355345</v>
+        <v>0.1544738964533504</v>
       </c>
     </row>
     <row r="22">
@@ -1302,7 +1306,7 @@
         <v>-1.502105551676532</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.8582052377373334</v>
+        <v>-0.858205237737333</v>
       </c>
     </row>
     <row r="23">
@@ -1313,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.57609508699131</v>
+        <v>-1.543220271296129</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.282092056245657</v>
+        <v>-2.172355850277836</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.208129815565866</v>
+        <v>-2.102474009480763</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.907398373375423</v>
+        <v>-3.031181685833734</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.942944086165192</v>
+        <v>-4.012165592133578</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.771999942244176</v>
+        <v>-2.864255600159332</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.731012102993419</v>
+        <v>-1.659892397100524</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.52866382597427</v>
+        <v>-2.45712323679245</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.968092800543809</v>
+        <v>-1.965875356846821</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.363871404120427</v>
+        <v>1.198186861401435</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4699959884645862</v>
+        <v>0.4183503021295808</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5396795481370256</v>
+        <v>0.7658078436945774</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4812031114593826</v>
+        <v>0.4186172853420312</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.8013134772278179</v>
+        <v>-0.8587277300567103</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4364454225627258</v>
+        <v>0.6416592373457328</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5073501131457053</v>
+        <v>0.4859623464383465</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.5601576901439074</v>
+        <v>-0.5226696272449274</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1394538960001521</v>
+        <v>0.1804631234677128</v>
       </c>
     </row>
     <row r="25">
@@ -1418,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4125843565733938</v>
+        <v>-0.4237922439648678</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6024382058226833</v>
+        <v>-0.5690929724023844</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5652355257630087</v>
+        <v>-0.5399832557837313</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6711031461746494</v>
+        <v>-0.6781612153866541</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8686831850488957</v>
+        <v>-0.8617808819012955</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5844784590092678</v>
+        <v>-0.6056124070937604</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4389394726148662</v>
+        <v>-0.4360094109341311</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6422427024584958</v>
+        <v>-0.6371441547562642</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5009385973678373</v>
+        <v>-0.4915586349819482</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5741690104136795</v>
+        <v>0.4819525383201382</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2045753766612301</v>
+        <v>0.2206406531962411</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2354397111757618</v>
+        <v>0.3272994647231389</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2506255432719258</v>
+        <v>0.1786270532968103</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.2218081120207658</v>
+        <v>-0.2563439181448264</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1934851850061293</v>
+        <v>0.2693277587214247</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2163478785589767</v>
+        <v>0.1788349411676704</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1926798151664626</v>
+        <v>-0.186023212562621</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.07309573465675913</v>
+        <v>0.07486226372100831</v>
       </c>
     </row>
     <row r="28">
@@ -1498,7 +1502,7 @@
         <v>0.2459170807660588</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.3910122881817274</v>
+        <v>-0.3910122881817281</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-0.5672224804145837</v>
@@ -1527,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.876731618789134</v>
+        <v>-3.497252348190645</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.544141286325533</v>
+        <v>-2.498300428874925</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.124154762441606</v>
+        <v>-3.076063435224281</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.741538617635171</v>
+        <v>-2.841192120368381</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.271338158778515</v>
+        <v>-3.102932584317688</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.363179461081197</v>
+        <v>-2.324450616708476</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.472427596417137</v>
+        <v>-2.291099592934216</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.065062759746897</v>
+        <v>-1.874424791733608</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.919385028833473</v>
+        <v>-2.102554184930691</v>
       </c>
     </row>
     <row r="30">
@@ -1562,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.465498013558999</v>
+        <v>1.526420049975663</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.515450541063467</v>
+        <v>2.633318725338391</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.513214538626129</v>
+        <v>2.646858804951376</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.301454495276643</v>
+        <v>1.480001482376108</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.150254365967981</v>
+        <v>0.9195549821291966</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.708589224043664</v>
+        <v>1.846204858587259</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.8638648771678846</v>
+        <v>0.9183333345726599</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.012100468573907</v>
+        <v>1.3965570763009</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.371264082541088</v>
+        <v>1.405417630613182</v>
       </c>
     </row>
     <row r="31">
@@ -1603,7 +1607,7 @@
         <v>0.06819450064473057</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1084304012370443</v>
+        <v>-0.1084304012370445</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.1437116152258855</v>
@@ -1632,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6938334265103568</v>
+        <v>-0.6744346616634127</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.487461322103511</v>
+        <v>-0.4750632748062298</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6377278821802955</v>
+        <v>-0.6229801978395262</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.5464333554690094</v>
+        <v>-0.5082132994739302</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6058525522515595</v>
+        <v>-0.5846888440992978</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4442832896543287</v>
+        <v>-0.4408763334573951</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.5171309455544557</v>
+        <v>-0.4813312861411312</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4248217507833901</v>
+        <v>-0.395429952017283</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.4044896071047391</v>
+        <v>-0.4267102101831406</v>
       </c>
     </row>
     <row r="33">
@@ -1667,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.783757990783327</v>
+        <v>0.8213604814082183</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.163551243602918</v>
+        <v>1.261776940838248</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.098522643986916</v>
+        <v>1.253343286254575</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5024639354537812</v>
+        <v>0.6075677307093235</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4175819618366529</v>
+        <v>0.3650054249963215</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6444997259205727</v>
+        <v>0.6931082988371438</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3093800299502412</v>
+        <v>0.3370549400003783</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3609810130720827</v>
+        <v>0.5171643106716225</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4629841855984189</v>
+        <v>0.4967078652209894</v>
       </c>
     </row>
     <row r="34">
@@ -1721,7 +1725,7 @@
         <v>0.5231070184429834</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.1934363730462987</v>
+        <v>0.193436373046299</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.3841163256937153</v>
@@ -1741,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-6.295714015497951</v>
+        <v>-6.038578769027478</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.439623548754569</v>
+        <v>-4.30754546392449</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-7.642794871420705</v>
+        <v>-7.625790616361148</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.3054055436773884</v>
+        <v>-0.2675719193438829</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.7550535406066642</v>
+        <v>-0.8135318417017346</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.067702714863443</v>
+        <v>-1.131742504122487</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.9555597509324397</v>
+        <v>-0.8126082858712028</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.9875053129279024</v>
+        <v>-0.9001539140521992</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.887923832905405</v>
+        <v>-1.818738538608154</v>
       </c>
     </row>
     <row r="36">
@@ -1776,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.03015057894685548</v>
+        <v>0.5721816092215155</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.377552561734108</v>
+        <v>3.172246920182929</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-0.7584329427511548</v>
+        <v>-1.003093600390881</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.493553672519211</v>
+        <v>2.494036317956729</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.850456037379607</v>
+        <v>1.970059202752808</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.59437329725257</v>
+        <v>1.444942233653592</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.646696493694717</v>
+        <v>1.671735238975516</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.813111021135178</v>
+        <v>1.634262789348603</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.5759777993188683</v>
+        <v>0.5784126457349293</v>
       </c>
     </row>
     <row r="37">
@@ -1826,7 +1830,7 @@
         <v>0.2329477529239859</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08614024825937712</v>
+        <v>0.08614024825937727</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1343324734868955</v>
@@ -1846,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.8417977490866274</v>
+        <v>-0.8276623972500369</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.601950087383032</v>
+        <v>-0.6145410481578344</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1311928097803815</v>
+        <v>-0.1089657758819817</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3011463133355466</v>
+        <v>-0.3098617695228197</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3860310946585834</v>
+        <v>-0.4009936231985061</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.2885500766249985</v>
+        <v>-0.2338147191471171</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.29360053033654</v>
+        <v>-0.2653492761868425</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.5370176596283471</v>
+        <v>-0.5349485875558047</v>
       </c>
     </row>
     <row r="39">
@@ -1881,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.07079744812459393</v>
+        <v>0.2019946229715216</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.9000004026877377</v>
+        <v>0.9629295657530109</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.4530861665731812</v>
+        <v>0.429678138333459</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.431332285046328</v>
+        <v>1.46200042326324</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.070736875759102</v>
+        <v>1.162314820309579</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.9196219878365043</v>
+        <v>0.8544569391498047</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.729012818499335</v>
+        <v>0.7910710902420726</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.7873658432691625</v>
+        <v>0.7286637874340478</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.2618920728471957</v>
+        <v>0.2879770220287017</v>
       </c>
     </row>
     <row r="40">
@@ -1935,7 +1939,7 @@
         <v>-0.298952679186176</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-0.07794182192292012</v>
+        <v>-0.07794182192292047</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-0.4258185865424015</v>
@@ -1955,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.769148619650092</v>
+        <v>-1.731856775164873</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.971128756817339</v>
+        <v>-1.916108179632267</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.276378675781658</v>
+        <v>-2.283995069691859</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.7792989637744452</v>
+        <v>-0.7972151380056991</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.117583938673325</v>
+        <v>-1.048895687518068</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.7984604429661525</v>
+        <v>-0.7465245900938374</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.088493663265016</v>
+        <v>-1.056389688415424</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.250519229051683</v>
+        <v>-1.299492370928279</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-1.278287261694228</v>
+        <v>-1.264528996626896</v>
       </c>
     </row>
     <row r="42">
@@ -1990,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.03318343895247415</v>
+        <v>0.05489779945512645</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.177502541758655</v>
+        <v>-0.2209475711223096</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-0.460673971254196</v>
+        <v>-0.4974916847302175</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.8679615363191886</v>
+        <v>0.7811269026797197</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.4419392185463428</v>
+        <v>0.5099356313452609</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.6628268419835746</v>
+        <v>0.6787852243521194</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.1073286673714636</v>
+        <v>0.1787871507449173</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-0.08546459519977558</v>
+        <v>-0.1023489240643175</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-0.1192868981824413</v>
+        <v>-0.1154932199577571</v>
       </c>
     </row>
     <row r="43">
@@ -2040,7 +2044,7 @@
         <v>-0.1076585272812239</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.02806832768543727</v>
+        <v>-0.0280683276854374</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.1311697619226185</v>
@@ -2060,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4111278955868984</v>
+        <v>-0.4132845554774981</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.4610110353497641</v>
+        <v>-0.4616878082312961</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.5362914410555326</v>
+        <v>-0.5443486681519483</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2476752040233235</v>
+        <v>-0.2531294623423526</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3586672242753985</v>
+        <v>-0.3450791394473645</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.2487654208054055</v>
+        <v>-0.2326521231009761</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3010661605937185</v>
+        <v>-0.2958608147024617</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.3551143032557377</v>
+        <v>-0.3691152705145007</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.35821617524467</v>
+        <v>-0.354757815536051</v>
       </c>
     </row>
     <row r="45">
@@ -2095,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.01216090551891027</v>
+        <v>0.01729417887266916</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.05162976339062506</v>
+        <v>-0.06180782397888131</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.1345608530477872</v>
+        <v>-0.1423937053723383</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.375176714603951</v>
+        <v>0.3214691320295244</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1801539670714796</v>
+        <v>0.2155218077088714</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2907324166762551</v>
+        <v>0.2775043984118485</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.04077164706382814</v>
+        <v>0.06382840182955976</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.03329120814695607</v>
+        <v>-0.03543225408154703</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.04083785619101508</v>
+        <v>-0.03837329572628428</v>
       </c>
     </row>
     <row r="46">
